--- a/top_5_tweets.xlsx
+++ b/top_5_tweets.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65470</v>
+        <v>65454</v>
       </c>
     </row>
     <row r="3">
@@ -477,46 +477,47 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43488</v>
+        <v>43531</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Internet is strained. Digital trust is eroding. And CEOs need new strategies to keep up. Watch our panel discuss from Davos: https://t.co/r4TIu37Ya2 #InternetOfTrust #WEF19 https://t.co/k0FLDn99bo</t>
+          <t>RT @Reuters: ⚡️ “Women of the world” by @Reuters
+https://t.co/LZGKKH126V</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>331</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43444</v>
+        <v>43657</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New Now: How is the innovation business evolving? Our CSO @genereznik talks about changes in #AI, consumer culture and #GenZ with former Disney VP @DuncanJWardle. Watch ➡ https://t.co/oTvRk3wDEQ https://t.co/Hzvp0VSi1u</t>
+          <t>Accenture is thrilled to announce Julie Sweet as our next chief executive officer, effective September 1, 2019. Julie, along with our incredibly talented people around the world, will lead Accenture into our next phase of growth and market leadership. https://t.co/jJqhc5itrT https://t.co/l2Dl3QAfzi</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>301</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43532</v>
+        <v>43986</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The research is clear: A culture of equality drives innovation. Here’s why: https://t.co/4efSrAWIsg #IWD2019 #GettingToEqual https://t.co/qXlH40Wm9H</t>
+          <t>RT @JulieSweet: There’s a time when words are not enough, and that time is now. I’m sharing actions we’re taking to fight racism inside and…</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>291</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/top_5_tweets.xlsx
+++ b/top_5_tweets.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65454</v>
+        <v>65447</v>
       </c>
     </row>
     <row r="3">
